--- a/PRACA2_/CSV/Production.xlsx
+++ b/PRACA2_/CSV/Production.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maciek\Desktop\PRACA2_\CSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{350C75A1-B378-4006-9635-5D894853B77F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62229A74-9FC0-4ADF-823A-BE0532E70CD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E320B187-EA04-49CF-BD2C-A90DB9F8DB16}"/>
   </bookViews>
@@ -403,10 +403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D8B5395-E4EC-4DC0-B70C-08C97E915BF3}">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -436,8 +436,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <f ca="1">TRUNC(RAND()*10)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -454,8 +453,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C13" ca="1" si="0">TRUNC(RAND()*10)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -472,8 +470,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -490,8 +487,7 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5">
         <v>3</v>
@@ -508,8 +504,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6">
         <v>4</v>
@@ -520,17 +515,16 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -538,17 +532,16 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8">
-        <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -556,17 +549,16 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9">
-        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D9">
         <v>3</v>
-      </c>
-      <c r="D9">
-        <v>2</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -574,17 +566,16 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10">
-        <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -592,259 +583,18 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11">
-        <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>4</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>5</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>5</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="D13">
-        <v>6</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>0</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>100</v>
-      </c>
-      <c r="D14">
-        <v>7</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>1</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>100</v>
-      </c>
-      <c r="D15">
-        <v>7</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>2</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>100</v>
-      </c>
-      <c r="D16">
-        <v>7</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>3</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
-        <v>100</v>
-      </c>
-      <c r="D17">
-        <v>7</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>4</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18">
-        <v>100</v>
-      </c>
-      <c r="D18">
-        <v>7</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>5</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <v>100</v>
-      </c>
-      <c r="D19">
-        <v>7</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>0</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20">
-        <v>100</v>
-      </c>
-      <c r="D20">
-        <v>7</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>1</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21">
-        <v>100</v>
-      </c>
-      <c r="D21">
-        <v>7</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>2</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22">
-        <v>100</v>
-      </c>
-      <c r="D22">
-        <v>7</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>3</v>
-      </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23">
-        <v>100</v>
-      </c>
-      <c r="D23">
-        <v>7</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>4</v>
-      </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="C24">
-        <v>100</v>
-      </c>
-      <c r="D24">
-        <v>7</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>5</v>
-      </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="C25">
-        <v>100</v>
-      </c>
-      <c r="D25">
-        <v>7</v>
-      </c>
-      <c r="E25">
         <v>0</v>
       </c>
     </row>
